--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicMonthlyLoanData.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicMonthlyLoanData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2E121-0040-4D46-83A7-4AC7A7CD7117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A7FD20-2558-42FD-A888-668915AFD02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,15 +153,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">填報該筆授信屬何種政府專案補助性質之貸款：專案補助貸款大項分類為01 振興傳統產業專案貸款 02 輔導中小企業升級或協助紮根貸款 03 振興景氣分案專案貸款 04 購置自動化機器 05 行政院開發基金或中小企業發展基金 06 微型企業創業貸款 07 九二一大地震金融因應措施 08 SARS 金融因應措施 09 青年優惠房屋貸款 10 優惠購屋專案貸款 11 輔助人民自購住宅貸款(首購或非首購) 12 國民住宅貸款 13 公教人員購置住宅 14 勞工貸款(含自購住宅及房屋修繕) 15 國軍官兵貸款 17 原住民貸款 18 學生助學貸款 19 獎勵數位內容產業及文化創意產業優惠貸款 20 留學生就學貸款 21 青年創業貸款(非屬農業部分 ) 22 天然災害房屋整修及重建貸款(非屬九二一地震受災戶部分) 23 參與度是更新計畫貸款  31 農機貸款 32 輔導農糧業經營貸款 33 輔導漁業經營貸款 34提升處勤產業經營貸款 35 農民經營改善貸款 36 農業科技園區進駐業者貸款 37 山坡地保育利用貸款 38 農業綜合貸款 39 改善財物貸款 40 農會事業發展貸款 41 農業產銷班貸款 50 民營事業污染防治設備低利貸款 51 行政院醫療發展基金構建醫療機構(設備)貸款 ，52 經濟部中小企業發展基金支援辦理四項專案貸款 99 其他政府專案補助貸款，如非屬專案補助貸款之授信填XX。 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:純信用                    1:單一擔保品(或保證)
-2:多種擔保品含股票          3:多種擔保品不含股票</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -378,13 +369,7 @@
     <t>循環動用</t>
   </si>
   <si>
-    <t>0: 非循環動用  1: 循環動用</t>
-  </si>
-  <si>
     <t>不可撤銷</t>
-  </si>
-  <si>
-    <t>Y:是  N:否</t>
   </si>
   <si>
     <t>LoanBal</t>
@@ -532,16 +517,7 @@
     <t>SyndCode</t>
   </si>
   <si>
-    <t>1:主辦行 2:參貸行</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>轉呆帳日期</t>
-  </si>
-  <si>
-    <t>法人特殊融資分為五類 A 專案融資 B 商品融資 C標的融資 D 收益型商用不動產融資 E 高風險商用不動產融資 K 非屬前述特殊融資之其他一般法人金融貸款
-個人(含非法人組織)金融貸款分類為L 購買住宅貸款(非自用) M 購買住宅貸款(自用) N 一般房屋抵押貸款(房屋修繕貸款) O 由信用卡衍生之小額信用貸款 R 由現金卡衍生之小額信用貸款 S 創業貸款 T 所營事業營運周轉金貸款 U 建築用融資貸款 V 代墊投標保證金貸款 W 農業用途貸款 X 參與都市更新更新計畫貸款 Y 企業員工認購股票(或可轉換公司債)貸款 ,Z 其他個人金融貸款 ,1 個人投資理財貸款</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>鑑估總值</t>
@@ -590,9 +566,6 @@
     <t>AmortizedCode</t>
   </si>
   <si>
-    <t>1.按月繳息(按期繳息到期還本)2.到期取息(到期繳息還本)3.本息平均法(期金)4.本金平均法</t>
-  </si>
-  <si>
     <t>ClTypeCode</t>
   </si>
   <si>
@@ -603,10 +576,6 @@
   </si>
   <si>
     <t>戶況</t>
-  </si>
-  <si>
-    <t>0: 正常戶1:展期2: 催收戶3: 結案戶4: 逾期戶5: 催收結案戶6: 呆帳戶7: 部分轉呆戶8: 債權轉讓戶9: 呆帳結案戶</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>擔保品處分日期</t>
@@ -745,12 +714,120 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>000：全公司</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>00A:傳統帳冊
 201:利變年金帳冊</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常戶
+1:展期
+2:催收戶
+3:結案戶
+4:逾期戶
+5:催收結案戶
+6:呆帳戶
+7:部分轉呆戶
+8:債權轉讓戶
+9:呆帳結案戶</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非循環動用
+1:循環動用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人特殊融資分為五類
+A:專案融資
+B:商品融資
+C:標的融資
+D:收益型商用不動產融資
+E:高風險商用不動產融資
+K:非屬前述特殊融資之其他一般法人金融貸款
+個人(含非法人組織)金融貸款分類為
+L:購買住宅貸款(非自用) 
+M:購買住宅貸款(自用) 
+N:一般房屋抵押貸款(房屋修繕貸款) 
+O:由信用卡衍生之小額信用貸款 
+R:由現金卡衍生之小額信用貸款 
+S:創業貸款 
+T:所營事業營運周轉金貸款 
+U:建築用融資貸款 
+V:代墊投標保證金貸款 
+W:農業用途貸款 
+X:參與都市更新更新計畫貸款 
+Y:企業員工認購股票(或可轉換公司債)貸款
+Z:其他個人金融貸款
+1:個人投資理財貸款</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">填報該筆授信屬何種政府專案補助性質之貸款：專案補助貸款大項分類為
+01:振興傳統產業專案貸款
+02:輔導中小企業升級或協助紮根貸款
+03:振興景氣分案專案貸款
+04:購置自動化機器
+05:行政院開發基金或中小企業發展基金
+06:微型企業創業貸款
+07:九二一大地震金融因應措施
+08:SARS 金融因應措施
+09:青年優惠房屋貸款
+10:優惠購屋專案貸款
+11:輔助人民自購住宅貸款(首購或非首購)
+12:國民住宅貸款
+13:公教人員購置住宅
+14:勞工貸款(含自購住宅及房屋修繕)
+15:國軍官兵貸款
+17:原住民貸款
+18:學生助學貸款
+19:獎勵數位內容產業及文化創意產業優惠貸款
+20:留學生就學貸款
+21:青年創業貸款(非屬農業部分 )
+22:天然災害房屋整修及重建貸款(非屬九二一地震受災戶部分)
+23:參與度是更新計畫貸款
+31:農機貸款
+32:輔導農糧業經營貸款
+33:輔導漁業經營貸款
+34:提升處勤產業經營貸款
+35:農民經營改善貸款
+36:農業科技園區進駐業者貸款
+37:山坡地保育利用貸款
+38:農業綜合貸款
+39:改善財物貸款
+40:農會事業發展貸款
+41:農業產銷班貸款
+50:民營事業污染防治設備低利貸款
+51:行政院醫療發展基金構建醫療機構(設備)貸款
+52:經濟部中小企業發展基金支援辦理四項專案貸款
+99:其他政府專案補助貸款
+XX:非屬專案補助貸款之授信 </t>
+  </si>
+  <si>
+    <t>1:按月繳息(按期繳息到期還本)
+2:到期取息(到期繳息還本)
+3:本息平均法(期金)
+4:本金平均法</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:純信用
+1:單一擔保品(或保證)
+2:多種擔保品含股票
+3:多種擔保品不含股票</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:主辦行
+2:參貸行</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>000:全公司</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1097,6 +1174,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1108,24 +1203,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1474,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1490,23 +1567,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1518,12 +1595,12 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1531,10 +1608,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1542,30 +1619,30 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="39"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="39"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1573,7 +1650,7 @@
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -1591,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1599,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
@@ -1618,13 +1695,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9">
         <v>7</v>
@@ -1637,10 +1714,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
@@ -1656,10 +1733,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1675,13 +1752,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="9">
         <v>10</v>
@@ -1689,15 +1766,15 @@
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="162" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -1707,7 +1784,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1715,20 +1792,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1736,20 +1813,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="9">
         <v>10</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -1757,20 +1834,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="9">
         <v>10</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1778,10 +1855,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>3</v>
@@ -1797,10 +1874,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -1816,10 +1893,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
@@ -1829,7 +1906,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1837,10 +1914,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -1856,10 +1933,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>16</v>
@@ -1877,10 +1954,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>16</v>
@@ -1892,18 +1969,18 @@
         <v>2</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -1913,7 +1990,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="18" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1921,13 +1998,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="9">
         <v>8</v>
@@ -1935,15 +2012,15 @@
       <c r="F25" s="9"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
@@ -1953,15 +2030,15 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>18</v>
@@ -1974,15 +2051,15 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>19</v>
@@ -1995,7 +2072,7 @@
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="18" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2003,10 +2080,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
@@ -2022,10 +2099,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
@@ -2041,7 +2118,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -2062,10 +2139,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>16</v>
@@ -2083,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" s="9">
         <v>8</v>
@@ -2102,13 +2179,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" s="9">
         <v>8</v>
@@ -2116,15 +2193,15 @@
       <c r="F34" s="9"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -2134,7 +2211,7 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="18" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2142,10 +2219,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>3</v>
@@ -2161,10 +2238,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>16</v>
@@ -2182,10 +2259,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>16</v>
@@ -2203,10 +2280,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>16</v>
@@ -2224,10 +2301,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>16</v>
@@ -2245,10 +2322,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>16</v>
@@ -2266,10 +2343,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>16</v>
@@ -2287,10 +2364,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>16</v>
@@ -2308,13 +2385,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44" s="9">
         <v>8</v>
@@ -2327,13 +2404,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E45" s="9">
         <v>8</v>
@@ -2346,13 +2423,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E46" s="9">
         <v>8</v>
@@ -2365,13 +2442,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47" s="9">
         <v>8</v>
@@ -2384,20 +2461,20 @@
         <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E48" s="9">
         <v>3</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2405,20 +2482,20 @@
         <v>41</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E49" s="9">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2426,20 +2503,20 @@
         <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E50" s="9">
         <v>3</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2447,22 +2524,22 @@
         <v>43</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E51" s="9">
         <v>1</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2470,22 +2547,22 @@
         <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E52" s="9">
         <v>2</v>
       </c>
       <c r="F52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="26" t="s">
         <v>103</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2493,13 +2570,13 @@
         <v>45</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E53" s="9">
         <v>7</v>
@@ -2512,10 +2589,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>3</v>
@@ -2526,15 +2603,15 @@
       <c r="F54" s="9"/>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>47</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -2544,7 +2621,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="18" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2552,10 +2629,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>16</v>
@@ -2573,13 +2650,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E57" s="9">
         <v>8</v>
@@ -2592,10 +2669,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>16</v>
@@ -2606,15 +2683,15 @@
       <c r="F58" s="9"/>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>51</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>3</v>
@@ -2624,7 +2701,7 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="26" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2632,13 +2709,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60" s="9">
         <v>8</v>
@@ -2651,10 +2728,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>16</v>
@@ -2672,10 +2749,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>16</v>
@@ -2693,13 +2770,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63" s="9">
         <v>8</v>
@@ -2712,13 +2789,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E64" s="9">
         <v>8</v>
@@ -2731,10 +2808,10 @@
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>3</v>
@@ -2744,49 +2821,49 @@
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>58</v>
       </c>
-      <c r="B66" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>175</v>
+      <c r="B66" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>167</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="35">
+        <v>54</v>
+      </c>
+      <c r="E66" s="31">
         <v>3</v>
       </c>
-      <c r="F66" s="36"/>
+      <c r="F66" s="32"/>
       <c r="G66" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>59</v>
       </c>
-      <c r="B67" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>177</v>
+      <c r="B67" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" s="38">
+        <v>54</v>
+      </c>
+      <c r="E67" s="34">
         <v>3</v>
       </c>
-      <c r="F67" s="39"/>
+      <c r="F67" s="35"/>
       <c r="G67" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2794,13 +2871,13 @@
         <v>60</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E68" s="27"/>
       <c r="F68" s="9"/>
@@ -2811,10 +2888,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>3</v>
@@ -2830,13 +2907,13 @@
         <v>62</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E70" s="27"/>
       <c r="F70" s="9"/>
@@ -2847,10 +2924,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
@@ -3233,24 +3310,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
